--- a/src/main/java/files/dataBased.xlsx
+++ b/src/main/java/files/dataBased.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="145">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -45,6 +45,365 @@
     <t xml:space="preserve">actionId</t>
   </si>
   <si>
+    <t xml:space="preserve">1747126155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Инна ИТ-сервис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">359950329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Елена</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кузовникова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KuzovnikovaElena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137264796</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Politdirector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сафронов Андрей Вадимович 
+ Цифровая Россия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">674723828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belyaeva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belyaevaMar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мария
+ИТ-Сервис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idSection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idButton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5550842004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">АйТи БАСТИОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владимир Алтухов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Руководитель технического центра ООО "Ай Ти Бастион"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Платформа СКДПУ НТ: новые решения старых задач контроля доступа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КОНФИДЕНТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иван Дятлов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Центр защиты информации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Построение системы защиты информации с использованием продуктов Dallas Lock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Код Безопасности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лебедев Дмитрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ведущий эксперт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Безопасность сети отечественными NGFW: методы предотвращения киберугроз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5942538902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Татьяна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Gate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Татьяна Мороз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Менеджер по продажам UserGate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UserGate SUMMA. 100% видимость трафика на базе собственных разработок</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IDECO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алексей Киселев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presale-инженер Ideco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Успешный опыт использования отечественного межсетевого экрана Ideco NGFW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Михаил Самсонов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эксперт центра компетенций Positive Technologies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нет повести печальнее на свете, чем вредонос в шифрованном пакете</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СДИ Софт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Евгений Кривоносов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Генеральный директор ООО «СДИ СОФТ»</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основа надежного и рационального управления ЦОДом</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НТЦ ИТ РОСА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вячеслав Кадомский</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Директор по развитию НТЦ ИТ РОСА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экосистема решений компании РОСА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СИСТЭМ ЭЛЕКТРИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергей Пахомов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Системный инженер СИСТЭМ ЭЛЕКТРИК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Современная инженерная инфраструктура Systeme Electric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDV Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Илья Валов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пресейл инженер UDV Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDV ITM - зонтичная система мониторинга функционирования ИТ-инфраструктуры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pantum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чулпан Садыкова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Руководитель отдела продаж Pantum International Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Печатные устройства для дома и офиса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Р7-Офис</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Андрей Антипов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Заместитель руководителя центра по работе с государственными организациями</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Новые горизонты офисного ПО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЕДСОФТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владимир Богачев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Руководитель отдела по работе с ключевыми клиентами РЕДСОФТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экосистема продуктов РЕД СОФТ для организации импортонезависимой ИТ-инфраструктуры</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIDEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максим Субачев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiden надежный поставщик источников бесперебойного питания для задач любой сложности</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YADRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дмитрий Аникин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Менеджер по работе с ключевыми заказчиками YADRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Российские технологические решения - от разработки до производства</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аквариус</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виталий Никитин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Главный менеджер отдeла региональных продаж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Портфель продуктов Аквариус. Новинки 2024 года</t>
+  </si>
+  <si>
+    <t xml:space="preserve">502309870</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корягин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yuri_koryagin</t>
+  </si>
+  <si>
     <t xml:space="preserve">userId</t>
   </si>
   <si>
@@ -57,19 +416,28 @@
     <t xml:space="preserve">type</t>
   </si>
   <si>
+    <t xml:space="preserve">Тест</t>
+  </si>
+  <si>
     <t xml:space="preserve">table</t>
   </si>
   <si>
-    <t>674723828</t>
-  </si>
-  <si>
-    <t>Maria</t>
-  </si>
-  <si>
-    <t>Belyaeva</t>
-  </si>
-  <si>
-    <t>belyaevaMar</t>
+    <t xml:space="preserve">14:30 - 17:30 — АйТи БАСТИОН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13:00 - 14:30 — Цифровая Россия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16:45 – 18:00 — СДИ Софт</t>
+  </si>
+  <si>
+    <t>345026524</t>
+  </si>
+  <si>
+    <t>Ирина</t>
+  </si>
+  <si>
+    <t>busic3001</t>
   </si>
   <si>
     <t/>
@@ -78,23 +446,22 @@
     <t>1</t>
   </si>
   <si>
-    <t>Мария
-ИТ-сервис</t>
+    <t>843626495</t>
+  </si>
+  <si>
+    <t>Сергей</t>
+  </si>
+  <si>
+    <t>Ширинкин</t>
+  </si>
+  <si>
+    <t>Shis2005</t>
+  </si>
+  <si>
+    <t>Ситникова Ирина Валерьевна. ЗАО ИВС-СЕТИ</t>
   </si>
   <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>5550842004</t>
-  </si>
-  <si>
-    <t>Marka</t>
-  </si>
-  <si>
-    <t>Serf</t>
-  </si>
-  <si>
-    <t>serfagen</t>
   </si>
 </sst>
 </file>
@@ -175,7 +542,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -190,6 +557,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -247,19 +618,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" hidden="false" style="2" width="12.05078125" collapsed="true" outlineLevel="0"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" hidden="false" style="3" width="9.21875" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="3" width="9.33203125" collapsed="true" outlineLevel="0"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" hidden="false" style="3" width="12.33203125" collapsed="true" outlineLevel="0"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" hidden="false" style="3" width="10.5859375" collapsed="true" outlineLevel="0"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" hidden="false" style="2" width="11.91796875" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" hidden="false" style="3" width="11.421875" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" hidden="false" style="3" width="12.5" collapsed="true" outlineLevel="0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" hidden="false" style="3" width="17.3203125" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" hidden="false" style="3" width="45.125" collapsed="true" outlineLevel="0"/>
     <col min="6" max="6" bestFit="true" customWidth="true" hidden="false" style="2" width="7.9453125" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
@@ -283,44 +654,110 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
+      <c r="F5" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -339,15 +776,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="4" max="4" customWidth="true" hidden="false" style="3" width="16.43" collapsed="true" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="false" hidden="false" style="3" width="11.57" collapsed="true" outlineLevel="0"/>
+    <col min="8" max="9" customWidth="true" hidden="false" style="2" width="22.53" collapsed="true" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="2" width="71.35" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -362,6 +802,447 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -380,10 +1261,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -400,6 +1281,25 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -418,7 +1318,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -428,15 +1328,29 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -456,20 +1370,94 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" hidden="false" style="2" width="11.92" collapsed="true" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="2" width="32.62" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="2" width="2.44" collapsed="true" outlineLevel="0"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
+      <c r="B2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/files/dataBased.xlsx
+++ b/src/main/java/files/dataBased.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="423">
   <si>
     <t>id</t>
   </si>
@@ -678,9 +678,6 @@
     <t>Кольцов Вячеслав Николаевич ООО МГМ, Мотовилиха гражданское машиностроение</t>
   </si>
   <si>
-    <t>Мария&lt;br&gt;ИТ-Сервис</t>
-  </si>
-  <si>
     <t>758433897</t>
   </si>
   <si>
@@ -956,6 +953,383 @@
   <si>
     <t>Швецов Андрей Анатольевич
 ОАО "СМЗ"</t>
+  </si>
+  <si>
+    <t>1757495146</t>
+  </si>
+  <si>
+    <t>Аникин</t>
+  </si>
+  <si>
+    <t>dmitry_yadro_anikin</t>
+  </si>
+  <si>
+    <t>Аникин Дмитрий Валерьевич
+ООО «КНС ГРУПП»</t>
+  </si>
+  <si>
+    <t>Климашевский Денис Анатольевич оао Соликамский магниевый завод</t>
+  </si>
+  <si>
+    <t>285887024</t>
+  </si>
+  <si>
+    <t>Гущина</t>
+  </si>
+  <si>
+    <t>Gushchina_Elena</t>
+  </si>
+  <si>
+    <t>Гущина Елена Викторовна
+OCS Distribution</t>
+  </si>
+  <si>
+    <t>220592571</t>
+  </si>
+  <si>
+    <t>Kargapoltsev</t>
+  </si>
+  <si>
+    <t>Aleksandr</t>
+  </si>
+  <si>
+    <t>kargapoltsevaa</t>
+  </si>
+  <si>
+    <t>196731049</t>
+  </si>
+  <si>
+    <t>Polina</t>
+  </si>
+  <si>
+    <t>Pavlova</t>
+  </si>
+  <si>
+    <t>Pavlovapolina</t>
+  </si>
+  <si>
+    <t>67361898</t>
+  </si>
+  <si>
+    <t>Mihail_Krasnikov</t>
+  </si>
+  <si>
+    <t>Программа</t>
+  </si>
+  <si>
+    <t>1612818570</t>
+  </si>
+  <si>
+    <t>АндрейК</t>
+  </si>
+  <si>
+    <t>Dean_dean_059</t>
+  </si>
+  <si>
+    <t>Кузнецов Андрей пгниу</t>
+  </si>
+  <si>
+    <t>Кочергин НД
+ПЦБК</t>
+  </si>
+  <si>
+    <t>Каргапольцев Александр Александрович</t>
+  </si>
+  <si>
+    <t>Красников Михаил
+Ujin</t>
+  </si>
+  <si>
+    <t>Вопрос тест работает???</t>
+  </si>
+  <si>
+    <t>2004408790</t>
+  </si>
+  <si>
+    <t>Paramonov</t>
+  </si>
+  <si>
+    <t>Dmitry</t>
+  </si>
+  <si>
+    <t>Парамонов Дмитрий Николаевич</t>
+  </si>
+  <si>
+    <t>Вопрос</t>
+  </si>
+  <si>
+    <t>1167701680</t>
+  </si>
+  <si>
+    <t>Ж</t>
+  </si>
+  <si>
+    <t>ZhurAndre</t>
+  </si>
+  <si>
+    <t>Журавлев Андрей
+АО "ВКК"</t>
+  </si>
+  <si>
+    <t>Мария ИТ-Сервис</t>
+  </si>
+  <si>
+    <t>327612656</t>
+  </si>
+  <si>
+    <t>Евгений</t>
+  </si>
+  <si>
+    <t>evgen_krosh</t>
+  </si>
+  <si>
+    <t>178556504</t>
+  </si>
+  <si>
+    <t>Полина</t>
+  </si>
+  <si>
+    <t>Пехотина</t>
+  </si>
+  <si>
+    <t>Polina_Pekhotina</t>
+  </si>
+  <si>
+    <t>Пехотина Полина Сергеевна</t>
+  </si>
+  <si>
+    <t>Фурин Евгений Сергеевич
+ПГКУБ им.А.М. Горького</t>
+  </si>
+  <si>
+    <t>233200350</t>
+  </si>
+  <si>
+    <t>Irina</t>
+  </si>
+  <si>
+    <t>Barina_7</t>
+  </si>
+  <si>
+    <t>Ирина Барская УТКС</t>
+  </si>
+  <si>
+    <t>126131023</t>
+  </si>
+  <si>
+    <t>Yuriy</t>
+  </si>
+  <si>
+    <t>ychelpanov</t>
+  </si>
+  <si>
+    <t>803767240</t>
+  </si>
+  <si>
+    <t>Maxim</t>
+  </si>
+  <si>
+    <t>subadab</t>
+  </si>
+  <si>
+    <t>Субачев Максим Алексеевич</t>
+  </si>
+  <si>
+    <t>212353203</t>
+  </si>
+  <si>
+    <t>Максим</t>
+  </si>
+  <si>
+    <t>Байрак</t>
+  </si>
+  <si>
+    <t>mbairak</t>
+  </si>
+  <si>
+    <t>Байрак Максим Григорьевич
+ЭлРос</t>
+  </si>
+  <si>
+    <t>578011349</t>
+  </si>
+  <si>
+    <t>Lenyaflyagin</t>
+  </si>
+  <si>
+    <t>Бизяев Дмитрий Леонидович ГКУЗ ПК МИАЦ</t>
+  </si>
+  <si>
+    <t>ВОПРОС</t>
+  </si>
+  <si>
+    <t>709595967</t>
+  </si>
+  <si>
+    <t>Sergey Sobol</t>
+  </si>
+  <si>
+    <t>serg59brz</t>
+  </si>
+  <si>
+    <t>Соболь Сергей</t>
+  </si>
+  <si>
+    <t>Клкь</t>
+  </si>
+  <si>
+    <t>262075800</t>
+  </si>
+  <si>
+    <t>Кирилл</t>
+  </si>
+  <si>
+    <t>Пустогачев</t>
+  </si>
+  <si>
+    <t>Пустогачев Кирилл Сергеевич</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>268724998</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
+  <si>
+    <t>У</t>
+  </si>
+  <si>
+    <t>SUF76</t>
+  </si>
+  <si>
+    <t>1057703045</t>
+  </si>
+  <si>
+    <t>Горшков</t>
+  </si>
+  <si>
+    <t>Горшков Алексей ооо вектор</t>
+  </si>
+  <si>
+    <t>120404741</t>
+  </si>
+  <si>
+    <t>Ovsyannikov</t>
+  </si>
+  <si>
+    <t>D_Ovsyannikov</t>
+  </si>
+  <si>
+    <t>Овсянников Дмитрий Игоревич АО "ОДК-Авиадвигатель"</t>
+  </si>
+  <si>
+    <t>401927820</t>
+  </si>
+  <si>
+    <t>1149699233</t>
+  </si>
+  <si>
+    <t>Илья</t>
+  </si>
+  <si>
+    <t>Николаевич</t>
+  </si>
+  <si>
+    <t>Ilya_N_S</t>
+  </si>
+  <si>
+    <t>Ширяев Илья Николаевич
+"Тесто метро внимания "</t>
+  </si>
+  <si>
+    <t>289592227</t>
+  </si>
+  <si>
+    <t>Григоров</t>
+  </si>
+  <si>
+    <t>Григоров Николай Андреевич
+АО "Бионт"</t>
+  </si>
+  <si>
+    <t>719166750</t>
+  </si>
+  <si>
+    <t>Альберт</t>
+  </si>
+  <si>
+    <t>GabitovAlbert</t>
+  </si>
+  <si>
+    <t>375080952</t>
+  </si>
+  <si>
+    <t>М</t>
+  </si>
+  <si>
+    <t>Митюшов Николай</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>ИнфоТеКС</t>
+  </si>
+  <si>
+    <t>Александр Реунов</t>
+  </si>
+  <si>
+    <t>Руководитель направления ИнфоТеКС</t>
+  </si>
+  <si>
+    <t>Информационная безопасность в условиях импортозамещения. Актуальный опыт</t>
+  </si>
+  <si>
+    <t>435341693</t>
+  </si>
+  <si>
+    <t>280133122</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Karpov</t>
+  </si>
+  <si>
+    <t>Ka2107</t>
+  </si>
+  <si>
+    <t>Карпов Александр Игоревич
+Государственное бюджетное учреждение Пермского края "Центр информационного развития Пермского края"</t>
+  </si>
+  <si>
+    <t>1487745591</t>
+  </si>
+  <si>
+    <t>Teimyr</t>
+  </si>
+  <si>
+    <t>Mamedov</t>
+  </si>
+  <si>
+    <t>TimLM59</t>
+  </si>
+  <si>
+    <t>5779441590</t>
+  </si>
+  <si>
+    <t>Evgeniya Byakova</t>
+  </si>
+  <si>
+    <t>EvgeniyaByakova</t>
+  </si>
+  <si>
+    <t>Бякова Евгения Александровна 
+Группа компаний "Автоматизация учета "</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
@@ -1005,6 +1379,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1317,19 +1696,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.0625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="12.078125" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="17.58984375" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="22.27734375" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="3" width="22.21484375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="81.4375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="3" width="104.4921875" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="7.9453125" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1368,8 +1747,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>10</v>
+      <c r="A3" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>11</v>
@@ -1418,7 +1797,7 @@
         <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>213</v>
+        <v>338</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>142</v>
@@ -1638,7 +2017,7 @@
         <v>202</v>
       </c>
       <c r="E17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F17" t="s">
         <v>142</v>
@@ -1675,157 +2054,157 @@
         <v>212</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" t="s">
         <v>214</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>215</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>216</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>217</v>
       </c>
-      <c r="E20" t="s">
+      <c r="B21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" t="s">
         <v>222</v>
       </c>
-      <c r="F20" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C21" t="s">
-        <v>220</v>
-      </c>
-      <c r="D21" t="s">
-        <v>221</v>
-      </c>
-      <c r="E21" t="s">
-        <v>223</v>
-      </c>
       <c r="F21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" t="s">
         <v>225</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>226</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>227</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>228</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>229</v>
       </c>
-      <c r="F22" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>230</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>231</v>
-      </c>
-      <c r="C23" t="s">
-        <v>232</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F23" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>232</v>
+      </c>
+      <c r="B24" t="s">
         <v>233</v>
-      </c>
-      <c r="B24" t="s">
-        <v>234</v>
       </c>
       <c r="C24"/>
       <c r="D24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24" t="s">
         <v>235</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>236</v>
       </c>
-      <c r="F24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>237</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>238</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>239</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>245</v>
+      </c>
+      <c r="F25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>240</v>
       </c>
-      <c r="E25" t="s">
+      <c r="B26" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" t="s">
+        <v>242</v>
+      </c>
+      <c r="D26" t="s">
+        <v>243</v>
+      </c>
+      <c r="E26" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>246</v>
       </c>
-      <c r="F25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>241</v>
-      </c>
-      <c r="B26" t="s">
-        <v>242</v>
-      </c>
-      <c r="C26" t="s">
-        <v>243</v>
-      </c>
-      <c r="D26" t="s">
-        <v>244</v>
-      </c>
-      <c r="E26" t="s">
-        <v>245</v>
-      </c>
-      <c r="F26" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>247</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>248</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>249</v>
-      </c>
-      <c r="D27" t="s">
-        <v>250</v>
       </c>
       <c r="E27" t="s">
         <v>135</v>
@@ -1834,176 +2213,176 @@
         <v>136</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>250</v>
+      </c>
+      <c r="B28" t="s">
         <v>251</v>
-      </c>
-      <c r="B28" t="s">
-        <v>252</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F28" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B29" t="s">
         <v>253</v>
-      </c>
-      <c r="B29" t="s">
-        <v>254</v>
       </c>
       <c r="C29"/>
       <c r="D29" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E29" t="s">
+        <v>256</v>
+      </c>
+      <c r="F29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>257</v>
       </c>
-      <c r="F29" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>258</v>
-      </c>
-      <c r="B30" t="s">
-        <v>259</v>
       </c>
       <c r="C30"/>
       <c r="D30" t="s">
+        <v>259</v>
+      </c>
+      <c r="E30" t="s">
         <v>260</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>261</v>
       </c>
-      <c r="F30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>262</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>263</v>
-      </c>
-      <c r="C31" t="s">
-        <v>264</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>266</v>
+      </c>
+      <c r="B32" t="s">
         <v>267</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>268</v>
-      </c>
-      <c r="C32" t="s">
-        <v>269</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="s">
-        <v>135</v>
+        <v>325</v>
       </c>
       <c r="F32" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B33" t="s">
         <v>184</v>
       </c>
       <c r="C33" t="s">
+        <v>270</v>
+      </c>
+      <c r="D33" t="s">
         <v>271</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>272</v>
       </c>
-      <c r="E33" t="s">
-        <v>271</v>
-      </c>
-      <c r="F33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>273</v>
-      </c>
-      <c r="B34" t="s">
-        <v>274</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34" t="s">
+        <v>274</v>
+      </c>
+      <c r="F34" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>275</v>
       </c>
-      <c r="F34" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>276</v>
-      </c>
-      <c r="B35" t="s">
-        <v>277</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35" t="s">
+        <v>277</v>
+      </c>
+      <c r="F35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>278</v>
       </c>
-      <c r="F35" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>279</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>280</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>281</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>282</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>283</v>
       </c>
-      <c r="F36" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>284</v>
-      </c>
-      <c r="B37" t="s">
-        <v>285</v>
       </c>
       <c r="C37"/>
       <c r="D37" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E37" t="s">
         <v>135</v>
@@ -2012,29 +2391,29 @@
         <v>136</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>286</v>
+      </c>
+      <c r="B38" t="s">
         <v>287</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>288</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>289</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>299</v>
+      </c>
+      <c r="F38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>290</v>
-      </c>
-      <c r="E38" t="s">
-        <v>300</v>
-      </c>
-      <c r="F38" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>291</v>
       </c>
       <c r="B39" t="s">
         <v>192</v>
@@ -2042,15 +2421,15 @@
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c r="F39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s">
         <v>165</v>
@@ -2058,45 +2437,571 @@
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F40" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" t="s">
         <v>293</v>
-      </c>
-      <c r="B41" t="s">
-        <v>294</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41" t="s">
+        <v>297</v>
+      </c>
+      <c r="F41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>294</v>
+      </c>
+      <c r="B42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C42" t="s">
+        <v>295</v>
+      </c>
+      <c r="D42" t="s">
+        <v>296</v>
+      </c>
+      <c r="E42" t="s">
         <v>298</v>
       </c>
-      <c r="F41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>295</v>
-      </c>
-      <c r="B42" t="s">
-        <v>231</v>
-      </c>
-      <c r="C42" t="s">
-        <v>296</v>
-      </c>
-      <c r="D42" t="s">
-        <v>297</v>
-      </c>
-      <c r="E42" t="s">
-        <v>299</v>
-      </c>
       <c r="F42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B43" t="s">
+        <v>260</v>
+      </c>
+      <c r="C43" t="s">
+        <v>302</v>
+      </c>
+      <c r="D43" t="s">
+        <v>303</v>
+      </c>
+      <c r="E43" t="s">
+        <v>304</v>
+      </c>
+      <c r="F43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>306</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>307</v>
+      </c>
+      <c r="D44" t="s">
+        <v>308</v>
+      </c>
+      <c r="E44" t="s">
+        <v>309</v>
+      </c>
+      <c r="F44" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>310</v>
+      </c>
+      <c r="B45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" t="s">
+        <v>312</v>
+      </c>
+      <c r="D45" t="s">
+        <v>313</v>
+      </c>
+      <c r="E45" t="s">
+        <v>326</v>
+      </c>
+      <c r="F45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>314</v>
+      </c>
+      <c r="B46" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" t="s">
+        <v>316</v>
+      </c>
+      <c r="D46" t="s">
+        <v>317</v>
+      </c>
+      <c r="E46" t="s">
+        <v>320</v>
+      </c>
+      <c r="F46" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>318</v>
+      </c>
+      <c r="B47" t="s">
+        <v>319</v>
+      </c>
+      <c r="C47"/>
+      <c r="D47" t="s">
+        <v>319</v>
+      </c>
+      <c r="E47" t="s">
+        <v>327</v>
+      </c>
+      <c r="F47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>321</v>
+      </c>
+      <c r="B48" t="s">
+        <v>322</v>
+      </c>
+      <c r="C48"/>
+      <c r="D48" t="s">
+        <v>323</v>
+      </c>
+      <c r="E48" t="s">
+        <v>324</v>
+      </c>
+      <c r="F48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>329</v>
+      </c>
+      <c r="B49" t="s">
+        <v>330</v>
+      </c>
+      <c r="C49" t="s">
+        <v>331</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49" t="s">
+        <v>332</v>
+      </c>
+      <c r="F49" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>334</v>
+      </c>
+      <c r="B50" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" t="s">
+        <v>335</v>
+      </c>
+      <c r="D50" t="s">
+        <v>336</v>
+      </c>
+      <c r="E50" t="s">
+        <v>337</v>
+      </c>
+      <c r="F50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>339</v>
+      </c>
+      <c r="B51" t="s">
+        <v>340</v>
+      </c>
+      <c r="C51"/>
+      <c r="D51" t="s">
+        <v>341</v>
+      </c>
+      <c r="E51" t="s">
+        <v>347</v>
+      </c>
+      <c r="F51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>342</v>
+      </c>
+      <c r="B52" t="s">
+        <v>343</v>
+      </c>
+      <c r="C52" t="s">
+        <v>344</v>
+      </c>
+      <c r="D52" t="s">
+        <v>345</v>
+      </c>
+      <c r="E52" t="s">
+        <v>346</v>
+      </c>
+      <c r="F52" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>348</v>
+      </c>
+      <c r="B53" t="s">
+        <v>349</v>
+      </c>
+      <c r="C53"/>
+      <c r="D53" t="s">
+        <v>350</v>
+      </c>
+      <c r="E53" t="s">
+        <v>351</v>
+      </c>
+      <c r="F53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>352</v>
+      </c>
+      <c r="B54" t="s">
+        <v>353</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54" t="s">
+        <v>354</v>
+      </c>
+      <c r="E54" t="s">
+        <v>135</v>
+      </c>
+      <c r="F54" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>355</v>
+      </c>
+      <c r="B55" t="s">
+        <v>356</v>
+      </c>
+      <c r="C55"/>
+      <c r="D55" t="s">
+        <v>357</v>
+      </c>
+      <c r="E55" t="s">
+        <v>358</v>
+      </c>
+      <c r="F55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>359</v>
+      </c>
+      <c r="B56" t="s">
+        <v>360</v>
+      </c>
+      <c r="C56" t="s">
+        <v>361</v>
+      </c>
+      <c r="D56" t="s">
+        <v>362</v>
+      </c>
+      <c r="E56" t="s">
+        <v>363</v>
+      </c>
+      <c r="F56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>364</v>
+      </c>
+      <c r="B57" t="s">
+        <v>260</v>
+      </c>
+      <c r="C57"/>
+      <c r="D57" t="s">
+        <v>365</v>
+      </c>
+      <c r="E57" t="s">
+        <v>366</v>
+      </c>
+      <c r="F57" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58" t="s">
+        <v>369</v>
+      </c>
+      <c r="C58"/>
+      <c r="D58" t="s">
+        <v>370</v>
+      </c>
+      <c r="E58" t="s">
+        <v>371</v>
+      </c>
+      <c r="F58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>373</v>
+      </c>
+      <c r="B59" t="s">
+        <v>374</v>
+      </c>
+      <c r="C59" t="s">
+        <v>375</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59" t="s">
+        <v>376</v>
+      </c>
+      <c r="F59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>378</v>
+      </c>
+      <c r="B60" t="s">
+        <v>379</v>
+      </c>
+      <c r="C60" t="s">
+        <v>380</v>
+      </c>
+      <c r="D60" t="s">
+        <v>381</v>
+      </c>
+      <c r="E60" t="s">
+        <v>135</v>
+      </c>
+      <c r="F60" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>382</v>
+      </c>
+      <c r="B61" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" t="s">
+        <v>383</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61" t="s">
+        <v>384</v>
+      </c>
+      <c r="F61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>385</v>
+      </c>
+      <c r="B62" t="s">
+        <v>331</v>
+      </c>
+      <c r="C62" t="s">
+        <v>386</v>
+      </c>
+      <c r="D62" t="s">
+        <v>387</v>
+      </c>
+      <c r="E62" t="s">
+        <v>388</v>
+      </c>
+      <c r="F62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>389</v>
+      </c>
+      <c r="B63" t="s">
+        <v>152</v>
+      </c>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>390</v>
+      </c>
+      <c r="B64" t="s">
+        <v>391</v>
+      </c>
+      <c r="C64" t="s">
+        <v>392</v>
+      </c>
+      <c r="D64" t="s">
+        <v>393</v>
+      </c>
+      <c r="E64" t="s">
+        <v>394</v>
+      </c>
+      <c r="F64" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>395</v>
+      </c>
+      <c r="B65" t="s">
+        <v>169</v>
+      </c>
+      <c r="C65" t="s">
+        <v>396</v>
+      </c>
+      <c r="D65"/>
+      <c r="E65" t="s">
+        <v>397</v>
+      </c>
+      <c r="F65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>398</v>
+      </c>
+      <c r="B66" t="s">
+        <v>399</v>
+      </c>
+      <c r="C66"/>
+      <c r="D66" t="s">
+        <v>400</v>
+      </c>
+      <c r="E66" t="s">
+        <v>135</v>
+      </c>
+      <c r="F66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>401</v>
+      </c>
+      <c r="B67" t="s">
+        <v>169</v>
+      </c>
+      <c r="C67" t="s">
+        <v>402</v>
+      </c>
+      <c r="D67"/>
+      <c r="E67" t="s">
+        <v>403</v>
+      </c>
+      <c r="F67" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>410</v>
+      </c>
+      <c r="B68" t="s">
+        <v>411</v>
+      </c>
+      <c r="C68" t="s">
+        <v>412</v>
+      </c>
+      <c r="D68" t="s">
+        <v>413</v>
+      </c>
+      <c r="E68" t="s">
+        <v>414</v>
+      </c>
+      <c r="F68" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>415</v>
+      </c>
+      <c r="B69" t="s">
+        <v>416</v>
+      </c>
+      <c r="C69" t="s">
+        <v>417</v>
+      </c>
+      <c r="D69" t="s">
+        <v>418</v>
+      </c>
+      <c r="E69" t="s">
+        <v>135</v>
+      </c>
+      <c r="F69" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>419</v>
+      </c>
+      <c r="B70" t="s">
+        <v>420</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70" t="s">
+        <v>421</v>
+      </c>
+      <c r="E70" t="s">
+        <v>422</v>
+      </c>
+      <c r="F70" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2112,10 +3017,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2162,7 +3067,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -2221,7 +3126,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -2341,7 +3246,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="3" t="s">
@@ -2367,7 +3272,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
@@ -2422,7 +3327,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -2483,7 +3388,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -2509,7 +3414,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="3" t="s">
@@ -2535,7 +3440,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="3" t="s">
@@ -2561,7 +3466,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="3" t="s">
@@ -2587,7 +3492,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -2610,6 +3515,38 @@
       </c>
       <c r="K17" s="2" t="s">
         <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18" t="s">
+        <v>377</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -2624,15 +3561,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2646,12 +3583,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>120</v>
       </c>
@@ -2664,8 +3604,11 @@
       <c r="D3" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>158</v>
       </c>
@@ -2677,6 +3620,9 @@
       </c>
       <c r="D4" t="s">
         <v>157</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2691,7 +3637,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD3"/>
@@ -2711,6 +3657,62 @@
       </c>
       <c r="D1" s="3" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2725,7 +3727,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD8"/>
@@ -2846,6 +3848,39 @@
       </c>
       <c r="C10" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>368</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
